--- a/基本設計/テーブル定義書.xlsx
+++ b/基本設計/テーブル定義書.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
-    <sheet name="テーブル定義" sheetId="1" r:id="rId1"/>
+    <sheet name="表紙" sheetId="2" r:id="rId1"/>
+    <sheet name="テーブル定義" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
   <si>
     <t>テーブル仕様書</t>
     <rPh sb="4" eb="7">
@@ -68,13 +69,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>修正日</t>
-    <rPh sb="0" eb="3">
-      <t>シュウセイビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>顧客管理</t>
     <rPh sb="0" eb="2">
       <t>コキャク</t>
@@ -341,21 +335,171 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>正解数</t>
+    <t>削除フラグ</t>
     <rPh sb="0" eb="2">
-      <t>セイカイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>point</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int（10）</t>
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete_flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正解数（中級）</t>
+    <rPh sb="0" eb="3">
+      <t>セイカイスウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チュウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正解数（上級）</t>
+    <rPh sb="0" eb="3">
+      <t>セイカイスウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>point_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>point_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int(10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int(10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柴田</t>
+    <rPh sb="0" eb="2">
+      <t>シバタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日：6月10日</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社〇〇〇様</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英単語テストアプリ</t>
+    <rPh sb="0" eb="3">
+      <t>エイタンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新履歴</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンリレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>版数・リビジョン</t>
+    <rPh sb="0" eb="2">
+      <t>ハンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成・更新日</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改版理由・箇所</t>
+    <rPh sb="0" eb="2">
+      <t>カイハン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rev 1.00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初版作成</t>
+    <rPh sb="0" eb="4">
+      <t>ショハンサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル定義書</t>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ショ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -363,7 +507,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +532,34 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -403,7 +575,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -426,13 +598,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -445,11 +628,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,10 +935,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="23.4" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="41.4" x14ac:dyDescent="0.2">
+      <c r="B10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="12">
+        <v>45453</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B10:C10"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -748,7 +1135,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -768,60 +1155,62 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45458</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -829,25 +1218,25 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -859,19 +1248,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1">
         <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -883,19 +1272,19 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -907,19 +1296,19 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1">
         <v>100</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -931,19 +1320,19 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1">
         <v>255</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -955,19 +1344,19 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1">
         <v>255</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -979,19 +1368,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1003,19 +1392,19 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1">
         <v>100</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1027,13 +1416,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1047,15 +1436,17 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="E16" s="1">
+        <v>10</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1063,17 +1454,21 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <v>11</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="B17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="1">
+        <v>10</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1085,12 +1480,14 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1099,36 +1496,49 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="A19" s="4">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" t="s">
+      <c r="A20" s="1">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1138,6 +1548,11 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
